--- a/Data IEEE 30 Bus System.xlsx
+++ b/Data IEEE 30 Bus System.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ghirah\Matlab\Program S3 Pak Yusri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ghirah\Matlab\Program S3 Pak Yusri\Main Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25562758-1721-44AA-B227-49BE1521B252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF44900-FAB4-4F17-961F-5C8BEA000CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-7260" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generator cost and emission" sheetId="1" r:id="rId1"/>
     <sheet name="Bus_data" sheetId="2" r:id="rId2"/>
     <sheet name="Line_Data" sheetId="4" r:id="rId3"/>
-    <sheet name="Data_Contigency" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <r>
       <t>P</t>
@@ -367,51 +367,6 @@
   <si>
     <t>MVA Rating</t>
   </si>
-  <si>
-    <t>f0pq</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fpq max</t>
-    </r>
-  </si>
-  <si>
-    <t>Δfpq max* xpq</t>
-  </si>
-  <si>
-    <t>Δfpq min* xpq</t>
-  </si>
-  <si>
-    <t>Δθ From Bus</t>
-  </si>
-  <si>
-    <t>Δθ1</t>
-  </si>
-  <si>
-    <t>Δθ2</t>
-  </si>
-  <si>
-    <t>Nilai Pengurangan</t>
-  </si>
-  <si>
-    <t>Δθ To Bus</t>
-  </si>
 </sst>
 </file>
 
@@ -497,10 +452,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -548,8 +503,12 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -557,7 +516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,6 +541,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -594,21 +556,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -616,7 +565,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{182E0D8F-43EE-4277-A0FF-BA9BAC485E16}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{C0F88BA1-1587-4963-8CB7-7EE05D9F6D15}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -895,7 +844,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,22 +853,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1140,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C308A7AB-9AF3-408D-94E3-44C419FA7016}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,33 +1102,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="10" t="s">
         <v>16</v>
       </c>
@@ -1216,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -1228,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <v>138.47999999999999</v>
+        <v>0</v>
       </c>
       <c r="H3" s="6">
-        <v>-2.79</v>
+        <v>0</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -1250,31 +1199,31 @@
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
-        <v>1.0338000000000001</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="C4">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>21.7</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>12.7</v>
       </c>
-      <c r="G4" s="6">
-        <v>57.56</v>
-      </c>
-      <c r="H4" s="6">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="I4" s="6">
-        <v>-20</v>
-      </c>
-      <c r="J4" s="6">
-        <v>100</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-40</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
     </row>
@@ -1285,31 +1234,31 @@
       <c r="B5" s="6">
         <v>0</v>
       </c>
-      <c r="C5" s="6">
-        <v>1.0313000000000001</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>2.4</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>1.2</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
     </row>
@@ -1320,31 +1269,31 @@
       <c r="B6" s="6">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
-        <v>1.0263</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="C6">
+        <v>1.06</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>7.6</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>1.6</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>0</v>
       </c>
     </row>
@@ -1355,31 +1304,31 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
-        <v>1.0058</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="C7">
+        <v>1.01</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>94.2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>19</v>
       </c>
-      <c r="G7" s="6">
-        <v>24.56</v>
-      </c>
-      <c r="H7" s="6">
-        <v>22.57</v>
-      </c>
-      <c r="I7" s="6">
-        <v>-15</v>
-      </c>
-      <c r="J7" s="6">
-        <v>80</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-40</v>
+      </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
     </row>
@@ -1390,31 +1339,31 @@
       <c r="B8" s="6">
         <v>0</v>
       </c>
-      <c r="C8" s="6">
-        <v>1.0207999999999999</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0</v>
       </c>
     </row>
@@ -1425,31 +1374,31 @@
       <c r="B9" s="6">
         <v>0</v>
       </c>
-      <c r="C9" s="6">
-        <v>1.0068999999999999</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>22.8</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>10.9</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>0</v>
       </c>
     </row>
@@ -1460,31 +1409,31 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="6">
-        <v>1.0229999999999999</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="C10">
+        <v>1.01</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>30</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>30</v>
       </c>
-      <c r="G10" s="6">
-        <v>35</v>
-      </c>
-      <c r="H10" s="6">
-        <v>34.840000000000003</v>
-      </c>
-      <c r="I10" s="6">
-        <v>-15</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>-10</v>
+      </c>
+      <c r="J10">
         <v>60</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10">
         <v>0</v>
       </c>
     </row>
@@ -1495,31 +1444,31 @@
       <c r="B11" s="6">
         <v>0</v>
       </c>
-      <c r="C11" s="6">
-        <v>1.0331999999999999</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>0</v>
       </c>
     </row>
@@ -1530,32 +1479,32 @@
       <c r="B12" s="6">
         <v>0</v>
       </c>
-      <c r="C12" s="6">
-        <v>1.0183</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>5.8</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>-6</v>
+      </c>
+      <c r="J12">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1565,31 +1514,31 @@
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="6">
-        <v>1.0912999999999999</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>17.93</v>
-      </c>
-      <c r="H13" s="6">
-        <v>30.78</v>
-      </c>
-      <c r="I13" s="6">
-        <v>-10</v>
-      </c>
-      <c r="J13" s="6">
-        <v>50</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="C13">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>0</v>
       </c>
     </row>
@@ -1600,31 +1549,31 @@
       <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
-        <v>1.0399</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>11.2</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>7.5</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>0</v>
       </c>
     </row>
@@ -1635,31 +1584,31 @@
       <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="6">
-        <v>1.0883</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>16.91</v>
-      </c>
-      <c r="H15" s="6">
-        <v>37.83</v>
-      </c>
-      <c r="I15" s="6">
-        <v>-15</v>
-      </c>
-      <c r="J15" s="6">
-        <v>60</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="C15">
+        <v>1.071</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>-6</v>
+      </c>
+      <c r="J15">
+        <v>24</v>
+      </c>
+      <c r="K15">
         <v>0</v>
       </c>
     </row>
@@ -1670,31 +1619,31 @@
       <c r="B16" s="6">
         <v>0</v>
       </c>
-      <c r="C16" s="6">
-        <v>1.0236000000000001</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>6.2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>1.6</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>0</v>
       </c>
     </row>
@@ -1705,31 +1654,31 @@
       <c r="B17" s="6">
         <v>0</v>
       </c>
-      <c r="C17" s="6">
-        <v>1.0179</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
         <v>2.5</v>
       </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>0</v>
       </c>
     </row>
@@ -1740,31 +1689,31 @@
       <c r="B18" s="6">
         <v>0</v>
       </c>
-      <c r="C18" s="6">
-        <v>1.0235000000000001</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>3.5</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>1.8</v>
       </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>0</v>
       </c>
     </row>
@@ -1775,31 +1724,31 @@
       <c r="B19" s="6">
         <v>0</v>
       </c>
-      <c r="C19" s="6">
-        <v>1.0144</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>9</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>5.8</v>
       </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>0</v>
       </c>
     </row>
@@ -1810,31 +1759,31 @@
       <c r="B20" s="6">
         <v>0</v>
       </c>
-      <c r="C20" s="6">
-        <v>1.0057</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>3.2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
         <v>0.9</v>
       </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>0</v>
       </c>
     </row>
@@ -1845,31 +1794,31 @@
       <c r="B21" s="6">
         <v>0</v>
       </c>
-      <c r="C21" s="6">
-        <v>1.0017</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>9.5</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21">
         <v>3.4</v>
       </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>0</v>
       </c>
     </row>
@@ -1880,31 +1829,31 @@
       <c r="B22" s="6">
         <v>0</v>
       </c>
-      <c r="C22" s="6">
-        <v>1.0051000000000001</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22">
         <v>0.7</v>
       </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>0</v>
       </c>
     </row>
@@ -1915,31 +1864,31 @@
       <c r="B23" s="6">
         <v>0</v>
       </c>
-      <c r="C23" s="6">
-        <v>1.0061</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>17.5</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23">
         <v>11.2</v>
       </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>0</v>
       </c>
     </row>
@@ -1950,31 +1899,31 @@
       <c r="B24" s="6">
         <v>0</v>
       </c>
-      <c r="C24" s="6">
-        <v>1.0068999999999999</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>0</v>
       </c>
     </row>
@@ -1985,31 +1934,31 @@
       <c r="B25" s="6">
         <v>0</v>
       </c>
-      <c r="C25" s="6">
-        <v>1.0053000000000001</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>3.2</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25">
         <v>1.6</v>
       </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>0</v>
       </c>
     </row>
@@ -2020,32 +1969,32 @@
       <c r="B26" s="6">
         <v>0</v>
       </c>
-      <c r="C26" s="6">
-        <v>0.99709999999999999</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26">
         <v>6.7</v>
       </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <v>0</v>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>4.3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2055,31 +2004,31 @@
       <c r="B27" s="6">
         <v>0</v>
       </c>
-      <c r="C27" s="6">
-        <v>1.0085999999999999</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>0</v>
       </c>
     </row>
@@ -2090,31 +2039,31 @@
       <c r="B28" s="6">
         <v>0</v>
       </c>
-      <c r="C28" s="6">
-        <v>0.99080000000000001</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>3.5</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>0</v>
       </c>
     </row>
@@ -2125,31 +2074,31 @@
       <c r="B29" s="6">
         <v>0</v>
       </c>
-      <c r="C29" s="6">
-        <v>1.0245</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>0</v>
       </c>
     </row>
@@ -2160,31 +2109,31 @@
       <c r="B30" s="6">
         <v>0</v>
       </c>
-      <c r="C30" s="6">
-        <v>1.0156000000000001</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>0</v>
       </c>
     </row>
@@ -2195,31 +2144,31 @@
       <c r="B31" s="6">
         <v>0</v>
       </c>
-      <c r="C31" s="6">
-        <v>1.0046999999999999</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>2.4</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31">
         <v>0.9</v>
       </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>0</v>
       </c>
     </row>
@@ -2230,31 +2179,31 @@
       <c r="B32" s="6">
         <v>0</v>
       </c>
-      <c r="C32" s="6">
-        <v>0.99319999999999997</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>10.6</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32">
         <v>1.9</v>
       </c>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0</v>
-      </c>
-      <c r="K32" s="6">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>0</v>
       </c>
     </row>
@@ -2272,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3550D641-7826-4168-8ABF-8A02DF9C2E99}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,28 +2232,28 @@
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
@@ -2314,10 +2263,10 @@
       <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -2338,7 +2287,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2357,11 +2306,12 @@
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="17">
         <v>130</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -2372,7 +2322,7 @@
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="D5" s="6">
-        <v>0.16520000000000001</v>
+        <v>0.1852</v>
       </c>
       <c r="E5" s="6">
         <v>4.0800000000000003E-2</v>
@@ -2380,11 +2330,12 @@
       <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="17">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -2403,11 +2354,12 @@
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="17">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -2426,11 +2378,12 @@
       <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="17">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -2449,11 +2402,12 @@
       <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="17">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -2472,11 +2426,12 @@
       <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="17">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2495,11 +2450,12 @@
       <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="17">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2518,11 +2474,12 @@
       <c r="F11" s="6">
         <v>1</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="17">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2541,11 +2498,12 @@
       <c r="F12" s="6">
         <v>1</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="17">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -2564,11 +2522,12 @@
       <c r="F13" s="6">
         <v>1</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -2587,11 +2546,12 @@
       <c r="F14" s="6">
         <v>1.0155000000000001</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="17">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>6</v>
       </c>
@@ -2610,11 +2570,12 @@
       <c r="F15" s="6">
         <v>0.96289999999999998</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>9</v>
       </c>
@@ -2633,11 +2594,12 @@
       <c r="F16" s="6">
         <v>1</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="17">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>4</v>
       </c>
@@ -2656,11 +2618,12 @@
       <c r="F17" s="6">
         <v>1.0128999999999999</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="17">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -2679,11 +2642,12 @@
       <c r="F18" s="6">
         <v>1</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="17">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>12</v>
       </c>
@@ -2702,11 +2666,12 @@
       <c r="F19" s="6">
         <v>1</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="17">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>12</v>
       </c>
@@ -2725,11 +2690,12 @@
       <c r="F20" s="6">
         <v>1</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>14</v>
       </c>
@@ -2748,11 +2714,12 @@
       <c r="F21" s="6">
         <v>1</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -2771,11 +2738,12 @@
       <c r="F22" s="6">
         <v>1</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>15</v>
       </c>
@@ -2794,11 +2762,12 @@
       <c r="F23" s="6">
         <v>1</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>18</v>
       </c>
@@ -2817,11 +2786,12 @@
       <c r="F24" s="6">
         <v>1</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -2840,11 +2810,12 @@
       <c r="F25" s="6">
         <v>1</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>10</v>
       </c>
@@ -2863,11 +2834,12 @@
       <c r="F26" s="6">
         <v>1</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>10</v>
       </c>
@@ -2886,11 +2858,12 @@
       <c r="F27" s="6">
         <v>1</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>10</v>
       </c>
@@ -2909,11 +2882,12 @@
       <c r="F28" s="6">
         <v>1</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>10</v>
       </c>
@@ -2932,11 +2906,12 @@
       <c r="F29" s="6">
         <v>1</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>21</v>
       </c>
@@ -2955,11 +2930,12 @@
       <c r="F30" s="6">
         <v>1</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>15</v>
       </c>
@@ -2978,11 +2954,12 @@
       <c r="F31" s="6">
         <v>1</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>22</v>
       </c>
@@ -3001,11 +2978,12 @@
       <c r="F32" s="6">
         <v>1</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>23</v>
       </c>
@@ -3024,11 +3002,12 @@
       <c r="F33" s="6">
         <v>1</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>24</v>
       </c>
@@ -3047,11 +3026,12 @@
       <c r="F34" s="6">
         <v>1</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>25</v>
       </c>
@@ -3070,11 +3050,12 @@
       <c r="F35" s="6">
         <v>1</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>28</v>
       </c>
@@ -3093,11 +3074,12 @@
       <c r="F36" s="6">
         <v>0.95809999999999995</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>27</v>
       </c>
@@ -3116,11 +3098,12 @@
       <c r="F37" s="6">
         <v>1</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>27</v>
       </c>
@@ -3139,11 +3122,12 @@
       <c r="F38" s="6">
         <v>1</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>29</v>
       </c>
@@ -3162,11 +3146,12 @@
       <c r="F39" s="6">
         <v>1</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="17">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>8</v>
       </c>
@@ -3185,11 +3170,12 @@
       <c r="F40" s="6">
         <v>1</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>6</v>
       </c>
@@ -3208,11 +3194,12 @@
       <c r="F41" s="6">
         <v>1</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>9</v>
       </c>
@@ -3231,11 +3218,12 @@
       <c r="F42" s="6">
         <v>1</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>12</v>
       </c>
@@ -3254,11 +3242,12 @@
       <c r="F43" s="6">
         <v>1</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>25</v>
       </c>
@@ -3277,9 +3266,10 @@
       <c r="F44" s="6">
         <v>1</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="17">
         <v>32</v>
       </c>
+      <c r="H44" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3293,1080 +3283,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE56CCE-AED7-474B-8D4D-B2A23B413173}">
-  <dimension ref="A1:R44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="8" max="16" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-    </row>
-    <row r="2" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="D4" s="6">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="E4" s="6">
-        <v>5.28E-2</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6">
-        <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.16520000000000001</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.17369999999999999</v>
-      </c>
-      <c r="E6" s="6">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1.32E-2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4.7199999999999999E-2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.1983</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.1799999999999997E-2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6">
-        <v>5.8099999999999999E-2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.17630000000000001</v>
-      </c>
-      <c r="E9" s="6">
-        <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>4.1399999999999999E-2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>6</v>
-      </c>
-      <c r="B12" s="6">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2.6700000000000002E-2</v>
-      </c>
-      <c r="D12" s="6">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D13" s="6">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1.0155000000000001</v>
-      </c>
-      <c r="G14" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>6</v>
-      </c>
-      <c r="B15" s="6">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.96289999999999998</v>
-      </c>
-      <c r="G15" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>4</v>
-      </c>
-      <c r="B17" s="6">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1.0128999999999999</v>
-      </c>
-      <c r="G17" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>12</v>
-      </c>
-      <c r="B18" s="6">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.1231</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.25590000000000002</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>12</v>
-      </c>
-      <c r="B19" s="6">
-        <v>15</v>
-      </c>
-      <c r="C19" s="6">
-        <v>6.6199999999999995E-2</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0.13039999999999999</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>12</v>
-      </c>
-      <c r="B20" s="6">
-        <v>16</v>
-      </c>
-      <c r="C20" s="6">
-        <v>9.4500000000000001E-2</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0.19869999999999999</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>14</v>
-      </c>
-      <c r="B21" s="6">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.221</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.19969999999999999</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>16</v>
-      </c>
-      <c r="B22" s="6">
-        <v>17</v>
-      </c>
-      <c r="C22" s="6">
-        <v>5.2400000000000002E-2</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.1923</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>15</v>
-      </c>
-      <c r="B23" s="6">
-        <v>18</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.10730000000000001</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.2185</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>18</v>
-      </c>
-      <c r="B24" s="6">
-        <v>19</v>
-      </c>
-      <c r="C24" s="6">
-        <v>6.3899999999999998E-2</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.12920000000000001</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>19</v>
-      </c>
-      <c r="B25" s="6">
-        <v>20</v>
-      </c>
-      <c r="C25" s="6">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D25" s="6">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>10</v>
-      </c>
-      <c r="B26" s="6">
-        <v>20</v>
-      </c>
-      <c r="C26" s="6">
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>10</v>
-      </c>
-      <c r="B27" s="6">
-        <v>17</v>
-      </c>
-      <c r="C27" s="6">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="D27" s="6">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>10</v>
-      </c>
-      <c r="B28" s="6">
-        <v>21</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="D28" s="6">
-        <v>7.4899999999999994E-2</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>10</v>
-      </c>
-      <c r="B29" s="6">
-        <v>22</v>
-      </c>
-      <c r="C29" s="6">
-        <v>7.2700000000000001E-2</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.14990000000000001</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>21</v>
-      </c>
-      <c r="B30" s="6">
-        <v>22</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="D30" s="6">
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>15</v>
-      </c>
-      <c r="B31" s="6">
-        <v>23</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>22</v>
-      </c>
-      <c r="B32" s="6">
-        <v>24</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0.115</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>23</v>
-      </c>
-      <c r="B33" s="6">
-        <v>24</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>1</v>
-      </c>
-      <c r="G33" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>24</v>
-      </c>
-      <c r="B34" s="6">
-        <v>25</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0.1885</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0.32919999999999999</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>25</v>
-      </c>
-      <c r="B35" s="6">
-        <v>27</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0.10929999999999999</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0.2087</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>28</v>
-      </c>
-      <c r="B36" s="6">
-        <v>27</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0.95809999999999995</v>
-      </c>
-      <c r="G36" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>27</v>
-      </c>
-      <c r="B37" s="6">
-        <v>29</v>
-      </c>
-      <c r="C37" s="6">
-        <v>0.2198</v>
-      </c>
-      <c r="D37" s="6">
-        <v>0.4153</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>1</v>
-      </c>
-      <c r="G37" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>27</v>
-      </c>
-      <c r="B38" s="6">
-        <v>30</v>
-      </c>
-      <c r="C38" s="6">
-        <v>0.32019999999999998</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0.60270000000000001</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="6">
-        <v>1</v>
-      </c>
-      <c r="G38" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>29</v>
-      </c>
-      <c r="B39" s="6">
-        <v>30</v>
-      </c>
-      <c r="C39" s="6">
-        <v>0.2399</v>
-      </c>
-      <c r="D39" s="6">
-        <v>0.45329999999999998</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="6">
-        <v>1</v>
-      </c>
-      <c r="G39" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>8</v>
-      </c>
-      <c r="B40" s="6">
-        <v>28</v>
-      </c>
-      <c r="C40" s="6">
-        <v>6.3600000000000004E-2</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0.40279999999999999</v>
-      </c>
-      <c r="F40" s="6">
-        <v>1</v>
-      </c>
-      <c r="G40" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>6</v>
-      </c>
-      <c r="B41" s="6">
-        <v>28</v>
-      </c>
-      <c r="C41" s="6">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="D41" s="6">
-        <v>5.9900000000000002E-2</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
-      <c r="G41" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>9</v>
-      </c>
-      <c r="B42" s="6">
-        <v>11</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
-      <c r="F42" s="6">
-        <v>1</v>
-      </c>
-      <c r="G42" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>12</v>
-      </c>
-      <c r="B43" s="6">
-        <v>13</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6">
-        <v>1</v>
-      </c>
-      <c r="G43" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>25</v>
-      </c>
-      <c r="B44" s="6">
-        <v>26</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0.25440000000000002</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="6">
-        <v>1</v>
-      </c>
-      <c r="G44" s="6">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60ABA3F-56E5-44CB-AAB2-278C18E7AB28}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -4377,14 +3293,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="15"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5108,7 +4024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041CC473-DD0D-4906-B911-1984B951E6F2}">
   <dimension ref="A1:J42"/>
   <sheetViews>
@@ -6051,4 +4967,1037 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF56E20-E81A-4CC8-A17E-E702D1E075E4}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>21.7</v>
+      </c>
+      <c r="F2">
+        <v>12.7</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-40</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2.4</v>
+      </c>
+      <c r="F3">
+        <v>1.2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1.06</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>7.6</v>
+      </c>
+      <c r="F4">
+        <v>1.6</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1.01</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>94.2</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-40</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>22.8</v>
+      </c>
+      <c r="F7">
+        <v>10.9</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1.01</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-10</v>
+      </c>
+      <c r="J8">
+        <v>60</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>5.8</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>-6</v>
+      </c>
+      <c r="J10">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>11.2</v>
+      </c>
+      <c r="F12">
+        <v>7.5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1.071</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>-6</v>
+      </c>
+      <c r="J13">
+        <v>24</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>6.2</v>
+      </c>
+      <c r="F14">
+        <v>1.6</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3.5</v>
+      </c>
+      <c r="F16">
+        <v>1.8</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>5.8</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3.2</v>
+      </c>
+      <c r="F18">
+        <v>0.9</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>9.5</v>
+      </c>
+      <c r="F19">
+        <v>3.4</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F20">
+        <v>0.7</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>17.5</v>
+      </c>
+      <c r="F21">
+        <v>11.2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3.2</v>
+      </c>
+      <c r="F23">
+        <v>1.6</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F24">
+        <v>6.7</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>3.5</v>
+      </c>
+      <c r="F26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2.4</v>
+      </c>
+      <c r="F29">
+        <v>0.9</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>10.6</v>
+      </c>
+      <c r="F30">
+        <v>1.9</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>